--- a/Data/表3-6.xlsx
+++ b/Data/表3-6.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D27F83-9D52-4D7B-8DAF-282821F26A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="43035" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Prefill length</t>
+  </si>
+  <si>
+    <r>
+      <t>树节点数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据条数</t>
+    </r>
+  </si>
+  <si>
+    <t>draft depth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>draft top_k</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,15 +111,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +466,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2">
+        <v>256</v>
+      </c>
+      <c r="F1" s="2">
+        <v>512</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1024</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.857</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.784</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.827</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.8380000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.427</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.355</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.6480000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.4329999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.964</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.7450000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.7949999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.085</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.226</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.8239999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.3079999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.8889999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.964</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.3390000000000004</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.0730000000000004</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.0309999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.0629999999999997</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.125</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.4660000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.234</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4.2060000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.952</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.2009999999999996</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.5220000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="H16" s="4">
+        <v>4.2119999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.931</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.0369999999999999</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.4539999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.899</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.0460000000000003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.5060000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4.6609999999999996</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.4809999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.681</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5.1319999999999997</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4.5309999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4.7220000000000004</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5.0179999999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4.5380000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.766</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5.048</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.6239999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>4.5990000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.8070000000000004</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5.2110000000000003</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.6219999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4.8289999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5.085</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.734</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.8730000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5.1340000000000003</v>
+      </c>
+      <c r="F27" s="4">
+        <v>5.516</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.7220000000000004</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4.9020000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5.0990000000000002</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5.524</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5.74</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.9530000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>34</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5.2210000000000001</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5.4770000000000003</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.7270000000000003</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.9160000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.2549999999999999</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.577</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5.7560000000000002</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4.9580000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5.2610000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.843</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5.6269999999999998</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4.9630000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5.3259999999999996</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.8639999999999999</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5.0519999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5.32</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5.69</v>
+      </c>
+      <c r="G34" s="4">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4.9870000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>49</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5.0579999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>52</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5.399</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.7670000000000003</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5.883</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5.1070000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5.4180000000000001</v>
+      </c>
+      <c r="F37" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5.9260000000000002</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5.1479999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E38" s="4">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5.9569999999999999</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5.1150000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>59</v>
+      </c>
+      <c r="B39" s="4">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="H39" s="4">
+        <v>5.1680000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>61</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6.1189999999999998</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5.3029999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>64</v>
+      </c>
+      <c r="B41" s="4">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E41" s="4">
+        <v>5.7380000000000004</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="G41" s="4">
+        <v>6.2990000000000004</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5.3129999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>67</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6.1230000000000002</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6.3289999999999997</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5.3849999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>70</v>
+      </c>
+      <c r="B43" s="4">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="F43" s="4">
+        <v>6.09</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6.32</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5.319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>75</v>
+      </c>
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="F44" s="4">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="G44" s="4">
+        <v>6.3029999999999999</v>
+      </c>
+      <c r="H44" s="4">
+        <v>5.3810000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>80</v>
+      </c>
+      <c r="B45" s="4">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6.9333</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5.8540000000000001</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6.125</v>
+      </c>
+      <c r="G45" s="4">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="H45" s="4">
+        <v>5.3970000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>84</v>
+      </c>
+      <c r="B46" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4">
+        <v>7.4290000000000003</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5.782</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6.218</v>
+      </c>
+      <c r="G46" s="4">
+        <v>6.3680000000000003</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5.4640000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/表3-6.xlsx
+++ b/Data/表3-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHD\HPCA2025\Codes\Iron_Roofline\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D27F83-9D52-4D7B-8DAF-282821F26A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591DA47-AA89-4818-A429-E9D802DC2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43035" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-315" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
